--- a/mpan_compliance.xlsx
+++ b/mpan_compliance.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C480810-D1EC-41D2-B974-A2F730270745}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BE$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BE$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="132">
   <si>
     <t>core_mpan</t>
   </si>
@@ -264,9 +265,6 @@
     <t>SOUT</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -415,12 +413,18 @@
   </si>
   <si>
     <t>S1ADE LV Whole current</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NOCHANGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,11 +737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,9 +756,9 @@
     <col min="42" max="42" width="13" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
@@ -938,7 +942,7 @@
         <v>43157</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -947,7 +951,7 @@
         <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
         <v>61</v>
@@ -992,7 +996,7 @@
         <v>325</v>
       </c>
       <c r="Y2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z2" t="s">
         <v>70</v>
@@ -1040,43 +1044,43 @@
         <v>1</v>
       </c>
       <c r="AQ2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR2" t="b">
         <v>0</v>
       </c>
       <c r="AS2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
@@ -1189,49 +1193,49 @@
         <v>1</v>
       </c>
       <c r="AQ3" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR3" t="b">
         <v>1</v>
       </c>
       <c r="AS3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC3" t="s">
         <v>82</v>
       </c>
-      <c r="AT3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>83</v>
-      </c>
       <c r="BD3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
@@ -1242,7 +1246,7 @@
         <v>43154</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
@@ -1314,7 +1318,7 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG4" t="s">
         <v>75</v>
@@ -1344,43 +1348,43 @@
         <v>1</v>
       </c>
       <c r="AQ4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR4" t="b">
         <v>0</v>
       </c>
       <c r="AS4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
@@ -1493,46 +1497,46 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR5" t="b">
         <v>0</v>
       </c>
       <c r="AS5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BD5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
@@ -1543,7 +1547,7 @@
         <v>43157</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -1552,7 +1556,7 @@
         <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
         <v>61</v>
@@ -1597,13 +1601,13 @@
         <v>325</v>
       </c>
       <c r="Y6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z6" t="s">
         <v>70</v>
       </c>
       <c r="AA6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB6" s="1">
         <v>42649</v>
@@ -1645,49 +1649,49 @@
         <v>1</v>
       </c>
       <c r="AQ6" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR6" t="b">
         <v>1</v>
       </c>
       <c r="AS6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC6" t="s">
         <v>82</v>
       </c>
-      <c r="AT6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>83</v>
-      </c>
       <c r="BD6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
@@ -1698,37 +1702,37 @@
         <v>43324</v>
       </c>
       <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
         <v>84</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>85</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>86</v>
-      </c>
-      <c r="G7" t="s">
-        <v>87</v>
       </c>
       <c r="H7" t="s">
         <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7">
         <v>112171841</v>
       </c>
       <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
         <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
         <v>65</v>
@@ -1755,10 +1759,10 @@
         <v>325</v>
       </c>
       <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z7" t="s">
         <v>91</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>92</v>
       </c>
       <c r="AA7" t="s">
         <v>71</v>
@@ -1782,13 +1786,13 @@
         <v>76</v>
       </c>
       <c r="AI7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>93</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>94</v>
-      </c>
       <c r="AK7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM7">
         <v>95432.7</v>
@@ -1800,43 +1804,43 @@
         <v>2</v>
       </c>
       <c r="AQ7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR7" t="b">
         <v>0</v>
       </c>
       <c r="AS7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AY7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BD7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
@@ -1847,7 +1851,7 @@
         <v>43154</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
@@ -1949,43 +1953,43 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR8" t="b">
         <v>0</v>
       </c>
       <c r="AS8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
@@ -2005,7 +2009,7 @@
         <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
         <v>61</v>
@@ -2050,7 +2054,7 @@
         <v>325</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z9" t="s">
         <v>70</v>
@@ -2098,46 +2102,46 @@
         <v>1</v>
       </c>
       <c r="AQ9" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR9" t="b">
         <v>0</v>
       </c>
       <c r="AS9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
@@ -2250,46 +2254,46 @@
         <v>1</v>
       </c>
       <c r="AQ10" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR10" t="b">
         <v>0</v>
       </c>
       <c r="AS10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
@@ -2309,7 +2313,7 @@
         <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
         <v>61</v>
@@ -2354,7 +2358,7 @@
         <v>325</v>
       </c>
       <c r="Y11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z11" t="s">
         <v>70</v>
@@ -2402,46 +2406,46 @@
         <v>1</v>
       </c>
       <c r="AQ11" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR11" t="b">
         <v>0</v>
       </c>
       <c r="AS11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
@@ -2554,46 +2558,46 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR12" t="b">
         <v>0</v>
       </c>
       <c r="AS12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
@@ -2604,7 +2608,7 @@
         <v>43156</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
         <v>58</v>
@@ -2613,7 +2617,7 @@
         <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
         <v>61</v>
@@ -2658,7 +2662,7 @@
         <v>325</v>
       </c>
       <c r="Y13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z13" t="s">
         <v>70</v>
@@ -2706,43 +2710,43 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR13" t="b">
         <v>0</v>
       </c>
       <c r="AS13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
@@ -2753,7 +2757,7 @@
         <v>43157</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
         <v>58</v>
@@ -2762,7 +2766,7 @@
         <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
         <v>61</v>
@@ -2807,13 +2811,13 @@
         <v>325</v>
       </c>
       <c r="Y14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z14" t="s">
         <v>70</v>
       </c>
       <c r="AA14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB14" s="1">
         <v>42649</v>
@@ -2825,7 +2829,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s">
         <v>75</v>
@@ -2855,43 +2859,43 @@
         <v>1</v>
       </c>
       <c r="AQ14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR14" t="b">
         <v>0</v>
       </c>
       <c r="AS14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.25">
@@ -2902,7 +2906,7 @@
         <v>43157</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
@@ -2911,7 +2915,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
         <v>61</v>
@@ -2956,13 +2960,13 @@
         <v>325</v>
       </c>
       <c r="Y15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z15" t="s">
         <v>70</v>
       </c>
       <c r="AA15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB15" s="1">
         <v>42649</v>
@@ -2974,7 +2978,7 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG15" t="s">
         <v>75</v>
@@ -3004,49 +3008,49 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR15" t="b">
         <v>1</v>
       </c>
       <c r="AS15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC15" t="s">
         <v>82</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="BD15" t="s">
         <v>82</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="BE15" t="s">
         <v>82</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
@@ -3159,46 +3163,46 @@
         <v>1</v>
       </c>
       <c r="AQ16" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR16" t="b">
         <v>0</v>
       </c>
       <c r="AS16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC16" t="s">
         <v>82</v>
       </c>
-      <c r="AT16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>83</v>
-      </c>
       <c r="BD16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
@@ -3311,46 +3315,46 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR17" t="b">
         <v>0</v>
       </c>
       <c r="AS17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BD17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
@@ -3361,7 +3365,7 @@
         <v>43160</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
         <v>58</v>
@@ -3370,7 +3374,7 @@
         <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18" t="s">
         <v>61</v>
@@ -3415,7 +3419,7 @@
         <v>325</v>
       </c>
       <c r="Y18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z18" t="s">
         <v>70</v>
@@ -3433,7 +3437,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG18" t="s">
         <v>75</v>
@@ -3463,49 +3467,49 @@
         <v>1</v>
       </c>
       <c r="AQ18" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR18" t="b">
         <v>1</v>
       </c>
       <c r="AS18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC18" t="s">
         <v>82</v>
       </c>
-      <c r="AT18" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>83</v>
-      </c>
       <c r="BD18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
@@ -3516,7 +3520,7 @@
         <v>43157</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
         <v>58</v>
@@ -3525,7 +3529,7 @@
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -3570,7 +3574,7 @@
         <v>325</v>
       </c>
       <c r="Y19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z19" t="s">
         <v>70</v>
@@ -3618,43 +3622,43 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR19" t="b">
         <v>0</v>
       </c>
       <c r="AS19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
@@ -3674,7 +3678,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -3719,7 +3723,7 @@
         <v>325</v>
       </c>
       <c r="Y20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z20" t="s">
         <v>70</v>
@@ -3767,46 +3771,46 @@
         <v>1</v>
       </c>
       <c r="AQ20" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR20" t="b">
         <v>0</v>
       </c>
       <c r="AS20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
@@ -3919,43 +3923,43 @@
         <v>1</v>
       </c>
       <c r="AQ21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR21" t="b">
         <v>0</v>
       </c>
       <c r="AS21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
@@ -3966,7 +3970,7 @@
         <v>43155</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
         <v>58</v>
@@ -3975,7 +3979,7 @@
         <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -4020,13 +4024,13 @@
         <v>325</v>
       </c>
       <c r="Y22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z22" t="s">
         <v>70</v>
       </c>
       <c r="AA22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB22" s="1">
         <v>42647</v>
@@ -4068,43 +4072,43 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR22" t="b">
         <v>0</v>
       </c>
       <c r="AS22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
@@ -4115,7 +4119,7 @@
         <v>43157</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
         <v>58</v>
@@ -4124,7 +4128,7 @@
         <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H23" t="s">
         <v>61</v>
@@ -4169,7 +4173,7 @@
         <v>325</v>
       </c>
       <c r="Y23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z23" t="s">
         <v>70</v>
@@ -4217,43 +4221,43 @@
         <v>1</v>
       </c>
       <c r="AQ23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR23" t="b">
         <v>0</v>
       </c>
       <c r="AS23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
@@ -4336,7 +4340,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG24" t="s">
         <v>75</v>
@@ -4366,43 +4370,43 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR24" t="b">
         <v>0</v>
       </c>
       <c r="AS24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
@@ -4515,43 +4519,43 @@
         <v>1</v>
       </c>
       <c r="AQ25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR25" t="b">
         <v>0</v>
       </c>
       <c r="AS25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
@@ -4571,7 +4575,7 @@
         <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H26" t="s">
         <v>61</v>
@@ -4616,7 +4620,7 @@
         <v>325</v>
       </c>
       <c r="Y26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z26" t="s">
         <v>70</v>
@@ -4664,46 +4668,46 @@
         <v>1</v>
       </c>
       <c r="AQ26" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR26" t="b">
         <v>0</v>
       </c>
       <c r="AS26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
@@ -4714,7 +4718,7 @@
         <v>43154</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
@@ -4786,7 +4790,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG27" t="s">
         <v>75</v>
@@ -4816,43 +4820,43 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR27" t="b">
         <v>0</v>
       </c>
       <c r="AS27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
@@ -4935,7 +4939,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG28" t="s">
         <v>75</v>
@@ -4965,43 +4969,43 @@
         <v>1</v>
       </c>
       <c r="AQ28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR28" t="b">
         <v>0</v>
       </c>
       <c r="AS28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
@@ -5012,7 +5016,7 @@
         <v>43154</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
         <v>58</v>
@@ -5084,7 +5088,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG29" t="s">
         <v>75</v>
@@ -5114,43 +5118,43 @@
         <v>1</v>
       </c>
       <c r="AQ29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR29" t="b">
         <v>0</v>
       </c>
       <c r="AS29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
@@ -5161,7 +5165,7 @@
         <v>43155</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
         <v>58</v>
@@ -5170,7 +5174,7 @@
         <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H30" t="s">
         <v>61</v>
@@ -5215,7 +5219,7 @@
         <v>325</v>
       </c>
       <c r="Y30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z30" t="s">
         <v>70</v>
@@ -5233,7 +5237,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG30" t="s">
         <v>75</v>
@@ -5263,43 +5267,43 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR30" t="b">
         <v>0</v>
       </c>
       <c r="AS30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
@@ -5412,43 +5416,43 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR31" t="b">
         <v>0</v>
       </c>
       <c r="AS31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
@@ -5561,43 +5565,43 @@
         <v>1</v>
       </c>
       <c r="AQ32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR32" t="b">
         <v>0</v>
       </c>
       <c r="AS32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.25">
@@ -5608,7 +5612,7 @@
         <v>43158</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
         <v>58</v>
@@ -5617,7 +5621,7 @@
         <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
         <v>61</v>
@@ -5662,7 +5666,7 @@
         <v>325</v>
       </c>
       <c r="Y33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z33" t="s">
         <v>70</v>
@@ -5710,49 +5714,49 @@
         <v>1</v>
       </c>
       <c r="AQ33" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR33" t="b">
         <v>1</v>
       </c>
       <c r="AS33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC33" t="s">
         <v>82</v>
       </c>
-      <c r="AT33" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>83</v>
-      </c>
       <c r="BD33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.25">
@@ -5835,7 +5839,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG34" t="s">
         <v>75</v>
@@ -5865,43 +5869,43 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR34" t="b">
         <v>0</v>
       </c>
       <c r="AS34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.25">
@@ -5912,7 +5916,7 @@
         <v>43159</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
         <v>58</v>
@@ -5921,7 +5925,7 @@
         <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
         <v>61</v>
@@ -5966,7 +5970,7 @@
         <v>325</v>
       </c>
       <c r="Y35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z35" t="s">
         <v>70</v>
@@ -5984,7 +5988,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG35" t="s">
         <v>75</v>
@@ -6014,43 +6018,43 @@
         <v>1</v>
       </c>
       <c r="AQ35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR35" t="b">
         <v>0</v>
       </c>
       <c r="AS35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.25">
@@ -6061,7 +6065,7 @@
         <v>43160</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
         <v>58</v>
@@ -6070,7 +6074,7 @@
         <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H36" t="s">
         <v>61</v>
@@ -6115,7 +6119,7 @@
         <v>325</v>
       </c>
       <c r="Y36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z36" t="s">
         <v>70</v>
@@ -6133,7 +6137,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG36" t="s">
         <v>75</v>
@@ -6163,43 +6167,43 @@
         <v>1</v>
       </c>
       <c r="AQ36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR36" t="b">
         <v>0</v>
       </c>
       <c r="AS36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.25">
@@ -6210,7 +6214,7 @@
         <v>43155</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
         <v>58</v>
@@ -6219,7 +6223,7 @@
         <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H37" t="s">
         <v>61</v>
@@ -6264,7 +6268,7 @@
         <v>325</v>
       </c>
       <c r="Y37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z37" t="s">
         <v>70</v>
@@ -6312,43 +6316,43 @@
         <v>1</v>
       </c>
       <c r="AQ37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR37" t="b">
         <v>0</v>
       </c>
       <c r="AS37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
@@ -6359,7 +6363,7 @@
         <v>43160</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
         <v>58</v>
@@ -6368,7 +6372,7 @@
         <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H38" t="s">
         <v>61</v>
@@ -6413,7 +6417,7 @@
         <v>325</v>
       </c>
       <c r="Y38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z38" t="s">
         <v>70</v>
@@ -6431,7 +6435,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG38" t="s">
         <v>75</v>
@@ -6461,43 +6465,43 @@
         <v>1</v>
       </c>
       <c r="AQ38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR38" t="b">
         <v>0</v>
       </c>
       <c r="AS38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.25">
@@ -6508,7 +6512,7 @@
         <v>43156</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>58</v>
@@ -6517,7 +6521,7 @@
         <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H39" t="s">
         <v>61</v>
@@ -6562,7 +6566,7 @@
         <v>325</v>
       </c>
       <c r="Y39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z39" t="s">
         <v>70</v>
@@ -6610,43 +6614,43 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR39" t="b">
         <v>0</v>
       </c>
       <c r="AS39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.25">
@@ -6657,7 +6661,7 @@
         <v>43154</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>58</v>
@@ -6717,7 +6721,7 @@
         <v>70</v>
       </c>
       <c r="AA40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB40" s="1">
         <v>42646</v>
@@ -6759,43 +6763,43 @@
         <v>1</v>
       </c>
       <c r="AQ40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR40" t="b">
         <v>0</v>
       </c>
       <c r="AS40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.25">
@@ -6908,46 +6912,46 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR41" t="b">
         <v>0</v>
       </c>
       <c r="AS41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BD41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.25">
@@ -6958,13 +6962,13 @@
         <v>43324</v>
       </c>
       <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" t="s">
         <v>84</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>85</v>
-      </c>
-      <c r="F42" t="s">
-        <v>86</v>
       </c>
       <c r="G42" t="s">
         <v>60</v>
@@ -6973,22 +6977,22 @@
         <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J42">
         <v>112171841</v>
       </c>
       <c r="K42" t="s">
+        <v>88</v>
+      </c>
+      <c r="L42" t="s">
         <v>89</v>
-      </c>
-      <c r="L42" t="s">
-        <v>90</v>
       </c>
       <c r="M42" t="s">
         <v>64</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P42" t="s">
         <v>65</v>
@@ -7015,10 +7019,10 @@
         <v>325</v>
       </c>
       <c r="Y42" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z42" t="s">
         <v>91</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>92</v>
       </c>
       <c r="AA42" t="s">
         <v>71</v>
@@ -7042,13 +7046,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ42" t="s">
         <v>93</v>
       </c>
-      <c r="AJ42" t="s">
-        <v>94</v>
-      </c>
       <c r="AK42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM42">
         <v>95432.7</v>
@@ -7060,49 +7064,49 @@
         <v>2</v>
       </c>
       <c r="AQ42" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR42" t="b">
         <v>1</v>
       </c>
       <c r="AS42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC42" t="s">
         <v>82</v>
       </c>
-      <c r="AV42" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW42" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX42" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY42" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ42" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA42" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB42" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC42" t="s">
-        <v>83</v>
-      </c>
       <c r="BD42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.25">
@@ -7113,7 +7117,7 @@
         <v>43154</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
         <v>58</v>
@@ -7173,7 +7177,7 @@
         <v>70</v>
       </c>
       <c r="AA43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB43" s="1">
         <v>42646</v>
@@ -7185,7 +7189,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG43" t="s">
         <v>75</v>
@@ -7215,43 +7219,43 @@
         <v>1</v>
       </c>
       <c r="AQ43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR43" t="b">
         <v>0</v>
       </c>
       <c r="AS43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:57" x14ac:dyDescent="0.25">
@@ -7262,7 +7266,7 @@
         <v>43155</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
         <v>58</v>
@@ -7271,7 +7275,7 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H44" t="s">
         <v>61</v>
@@ -7316,7 +7320,7 @@
         <v>325</v>
       </c>
       <c r="Y44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z44" t="s">
         <v>70</v>
@@ -7364,49 +7368,49 @@
         <v>1</v>
       </c>
       <c r="AQ44" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR44" t="b">
         <v>1</v>
       </c>
       <c r="AS44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.25">
@@ -7417,7 +7421,7 @@
         <v>43156</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
         <v>58</v>
@@ -7426,7 +7430,7 @@
         <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H45" t="s">
         <v>61</v>
@@ -7471,7 +7475,7 @@
         <v>325</v>
       </c>
       <c r="Y45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z45" t="s">
         <v>70</v>
@@ -7519,49 +7523,49 @@
         <v>1</v>
       </c>
       <c r="AQ45" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR45" t="b">
         <v>1</v>
       </c>
       <c r="AS45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC45" t="s">
         <v>82</v>
       </c>
-      <c r="AU45" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV45" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW45" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX45" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY45" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ45" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA45" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB45" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC45" t="s">
-        <v>83</v>
-      </c>
       <c r="BD45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.25">
@@ -7674,49 +7678,49 @@
         <v>1</v>
       </c>
       <c r="AQ46" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR46" t="b">
         <v>1</v>
       </c>
       <c r="AS46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC46" t="s">
         <v>82</v>
       </c>
-      <c r="AT46" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV46" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW46" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX46" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY46" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ46" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA46" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB46" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC46" t="s">
-        <v>83</v>
-      </c>
       <c r="BD46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.25">
@@ -7736,7 +7740,7 @@
         <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H47" t="s">
         <v>61</v>
@@ -7781,7 +7785,7 @@
         <v>325</v>
       </c>
       <c r="Y47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z47" t="s">
         <v>70</v>
@@ -7829,46 +7833,46 @@
         <v>1</v>
       </c>
       <c r="AQ47" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR47" t="b">
         <v>0</v>
       </c>
       <c r="AS47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.25">
@@ -7879,7 +7883,7 @@
         <v>43156</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
         <v>58</v>
@@ -7888,7 +7892,7 @@
         <v>59</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H48" t="s">
         <v>61</v>
@@ -7933,7 +7937,7 @@
         <v>325</v>
       </c>
       <c r="Y48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z48" t="s">
         <v>70</v>
@@ -7951,7 +7955,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG48" t="s">
         <v>75</v>
@@ -7981,43 +7985,43 @@
         <v>1</v>
       </c>
       <c r="AQ48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR48" t="b">
         <v>0</v>
       </c>
       <c r="AS48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.25">
@@ -8037,7 +8041,7 @@
         <v>59</v>
       </c>
       <c r="G49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H49" t="s">
         <v>61</v>
@@ -8082,7 +8086,7 @@
         <v>325</v>
       </c>
       <c r="Y49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z49" t="s">
         <v>70</v>
@@ -8130,46 +8134,46 @@
         <v>1</v>
       </c>
       <c r="AQ49" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR49" t="b">
         <v>0</v>
       </c>
       <c r="AS49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.25">
@@ -8180,7 +8184,7 @@
         <v>43158</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>58</v>
@@ -8189,7 +8193,7 @@
         <v>59</v>
       </c>
       <c r="G50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H50" t="s">
         <v>61</v>
@@ -8234,7 +8238,7 @@
         <v>325</v>
       </c>
       <c r="Y50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z50" t="s">
         <v>70</v>
@@ -8252,7 +8256,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG50" t="s">
         <v>75</v>
@@ -8282,43 +8286,43 @@
         <v>1</v>
       </c>
       <c r="AQ50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR50" t="b">
         <v>0</v>
       </c>
       <c r="AS50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:57" x14ac:dyDescent="0.25">
@@ -8338,7 +8342,7 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H51" t="s">
         <v>61</v>
@@ -8383,7 +8387,7 @@
         <v>325</v>
       </c>
       <c r="Y51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z51" t="s">
         <v>70</v>
@@ -8431,46 +8435,46 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR51" t="b">
         <v>0</v>
       </c>
       <c r="AS51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:57" x14ac:dyDescent="0.25">
@@ -8490,7 +8494,7 @@
         <v>59</v>
       </c>
       <c r="G52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H52" t="s">
         <v>61</v>
@@ -8535,7 +8539,7 @@
         <v>325</v>
       </c>
       <c r="Y52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z52" t="s">
         <v>70</v>
@@ -8583,46 +8587,46 @@
         <v>1</v>
       </c>
       <c r="AQ52" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR52" t="b">
         <v>0</v>
       </c>
       <c r="AS52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.25">
@@ -8735,49 +8739,49 @@
         <v>1</v>
       </c>
       <c r="AQ53" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR53" t="b">
         <v>1</v>
       </c>
       <c r="AS53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC53" t="s">
         <v>82</v>
       </c>
-      <c r="AT53" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU53" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV53" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW53" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX53" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY53" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ53" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA53" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB53" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC53" t="s">
-        <v>83</v>
-      </c>
       <c r="BD53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.25">
@@ -8797,7 +8801,7 @@
         <v>59</v>
       </c>
       <c r="G54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H54" t="s">
         <v>61</v>
@@ -8842,7 +8846,7 @@
         <v>325</v>
       </c>
       <c r="Y54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z54" t="s">
         <v>70</v>
@@ -8890,46 +8894,46 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR54" t="b">
         <v>0</v>
       </c>
       <c r="AS54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.25">
@@ -8940,7 +8944,7 @@
         <v>43156</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
         <v>58</v>
@@ -8949,7 +8953,7 @@
         <v>59</v>
       </c>
       <c r="G55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H55" t="s">
         <v>61</v>
@@ -8994,7 +8998,7 @@
         <v>325</v>
       </c>
       <c r="Y55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z55" t="s">
         <v>70</v>
@@ -9042,49 +9046,49 @@
         <v>1</v>
       </c>
       <c r="AQ55" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR55" t="b">
         <v>1</v>
       </c>
       <c r="AS55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.25">
@@ -9095,7 +9099,7 @@
         <v>43154</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
         <v>58</v>
@@ -9167,7 +9171,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG56" t="s">
         <v>75</v>
@@ -9197,49 +9201,49 @@
         <v>1</v>
       </c>
       <c r="AQ56" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR56" t="b">
         <v>1</v>
       </c>
       <c r="AS56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC56" t="s">
         <v>82</v>
       </c>
-      <c r="AT56" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU56" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV56" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW56" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX56" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY56" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ56" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA56" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB56" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC56" t="s">
-        <v>83</v>
-      </c>
       <c r="BD56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:57" x14ac:dyDescent="0.25">
@@ -9250,7 +9254,7 @@
         <v>43157</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>58</v>
@@ -9259,7 +9263,7 @@
         <v>59</v>
       </c>
       <c r="G57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H57" t="s">
         <v>61</v>
@@ -9304,13 +9308,13 @@
         <v>325</v>
       </c>
       <c r="Y57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z57" t="s">
         <v>70</v>
       </c>
       <c r="AA57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB57" s="1">
         <v>42649</v>
@@ -9322,7 +9326,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG57" t="s">
         <v>75</v>
@@ -9352,43 +9356,43 @@
         <v>1</v>
       </c>
       <c r="AQ57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR57" t="b">
         <v>0</v>
       </c>
       <c r="AS57" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD57" t="s">
         <v>82</v>
-      </c>
-      <c r="AT57" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU57" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV57" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW57" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX57" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY57" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ57" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA57" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB57" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD57" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:57" x14ac:dyDescent="0.25">
@@ -9501,49 +9505,49 @@
         <v>1</v>
       </c>
       <c r="AQ58" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR58" t="b">
         <v>1</v>
       </c>
       <c r="AS58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT58" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC58" t="s">
         <v>82</v>
       </c>
-      <c r="AU58" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV58" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW58" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX58" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY58" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ58" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA58" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB58" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC58" t="s">
-        <v>83</v>
-      </c>
       <c r="BD58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.25">
@@ -9656,46 +9660,46 @@
         <v>1</v>
       </c>
       <c r="AQ59" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR59" t="b">
         <v>0</v>
       </c>
       <c r="AS59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BD59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.25">
@@ -9706,7 +9710,7 @@
         <v>43157</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
@@ -9715,7 +9719,7 @@
         <v>59</v>
       </c>
       <c r="G60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H60" t="s">
         <v>61</v>
@@ -9760,7 +9764,7 @@
         <v>325</v>
       </c>
       <c r="Y60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z60" t="s">
         <v>70</v>
@@ -9808,49 +9812,49 @@
         <v>1</v>
       </c>
       <c r="AQ60" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR60" t="b">
         <v>1</v>
       </c>
       <c r="AS60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:57" x14ac:dyDescent="0.25">
@@ -9861,7 +9865,7 @@
         <v>43155</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
         <v>58</v>
@@ -9870,7 +9874,7 @@
         <v>59</v>
       </c>
       <c r="G61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H61" t="s">
         <v>61</v>
@@ -9915,13 +9919,13 @@
         <v>325</v>
       </c>
       <c r="Y61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z61" t="s">
         <v>70</v>
       </c>
       <c r="AA61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB61" s="1">
         <v>42647</v>
@@ -9933,7 +9937,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG61" t="s">
         <v>75</v>
@@ -9963,43 +9967,43 @@
         <v>1</v>
       </c>
       <c r="AQ61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR61" t="b">
         <v>0</v>
       </c>
       <c r="AS61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:57" x14ac:dyDescent="0.25">
@@ -10010,37 +10014,37 @@
         <v>43324</v>
       </c>
       <c r="C62" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" t="s">
         <v>84</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>85</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>86</v>
-      </c>
-      <c r="G62" t="s">
-        <v>87</v>
       </c>
       <c r="H62" t="s">
         <v>75</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J62">
         <v>112171841</v>
       </c>
       <c r="K62" t="s">
+        <v>88</v>
+      </c>
+      <c r="L62" t="s">
         <v>89</v>
-      </c>
-      <c r="L62" t="s">
-        <v>90</v>
       </c>
       <c r="M62" t="s">
         <v>64</v>
       </c>
       <c r="O62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P62" t="s">
         <v>65</v>
@@ -10067,10 +10071,10 @@
         <v>325</v>
       </c>
       <c r="Y62" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z62" t="s">
         <v>91</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>92</v>
       </c>
       <c r="AA62" t="s">
         <v>71</v>
@@ -10085,7 +10089,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG62" t="s">
         <v>75</v>
@@ -10094,13 +10098,13 @@
         <v>76</v>
       </c>
       <c r="AI62" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ62" t="s">
         <v>93</v>
       </c>
-      <c r="AJ62" t="s">
-        <v>94</v>
-      </c>
       <c r="AK62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM62">
         <v>95432.7</v>
@@ -10112,43 +10116,43 @@
         <v>2</v>
       </c>
       <c r="AQ62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR62" t="b">
         <v>0</v>
       </c>
       <c r="AS62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AY62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BD62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:57" x14ac:dyDescent="0.25">
@@ -10261,43 +10265,43 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR63" t="b">
         <v>0</v>
       </c>
       <c r="AS63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:57" x14ac:dyDescent="0.25">
@@ -10317,7 +10321,7 @@
         <v>59</v>
       </c>
       <c r="G64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H64" t="s">
         <v>61</v>
@@ -10362,7 +10366,7 @@
         <v>325</v>
       </c>
       <c r="Y64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z64" t="s">
         <v>70</v>
@@ -10410,46 +10414,46 @@
         <v>1</v>
       </c>
       <c r="AQ64" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR64" t="b">
         <v>0</v>
       </c>
       <c r="AS64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.25">
@@ -10532,7 +10536,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG65" t="s">
         <v>75</v>
@@ -10562,43 +10566,43 @@
         <v>1</v>
       </c>
       <c r="AQ65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR65" t="b">
         <v>0</v>
       </c>
       <c r="AS65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.25">
@@ -10681,7 +10685,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG66" t="s">
         <v>75</v>
@@ -10711,43 +10715,43 @@
         <v>1</v>
       </c>
       <c r="AQ66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR66" t="b">
         <v>0</v>
       </c>
       <c r="AS66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:57" x14ac:dyDescent="0.25">
@@ -10767,7 +10771,7 @@
         <v>59</v>
       </c>
       <c r="G67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H67" t="s">
         <v>61</v>
@@ -10812,7 +10816,7 @@
         <v>325</v>
       </c>
       <c r="Y67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z67" t="s">
         <v>70</v>
@@ -10860,46 +10864,46 @@
         <v>1</v>
       </c>
       <c r="AQ67" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR67" t="b">
         <v>0</v>
       </c>
       <c r="AS67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.25">
@@ -10910,7 +10914,7 @@
         <v>43154</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E68" t="s">
         <v>58</v>
@@ -11012,49 +11016,49 @@
         <v>1</v>
       </c>
       <c r="AQ68" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR68" t="b">
         <v>1</v>
       </c>
       <c r="AS68" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ68" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA68" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB68" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC68" t="s">
         <v>82</v>
       </c>
-      <c r="AT68" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU68" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV68" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW68" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX68" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY68" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ68" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA68" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB68" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC68" t="s">
-        <v>83</v>
-      </c>
       <c r="BD68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.25">
@@ -11167,46 +11171,46 @@
         <v>1</v>
       </c>
       <c r="AQ69" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR69" t="b">
         <v>0</v>
       </c>
       <c r="AS69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT69" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW69" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA69" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB69" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC69" t="s">
         <v>82</v>
       </c>
-      <c r="AU69" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV69" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW69" t="s">
+      <c r="BD69" t="s">
         <v>82</v>
-      </c>
-      <c r="AX69" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY69" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ69" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA69" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB69" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC69" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD69" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.25">
@@ -11217,37 +11221,37 @@
         <v>43324</v>
       </c>
       <c r="C70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" t="s">
         <v>84</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>85</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>86</v>
-      </c>
-      <c r="G70" t="s">
-        <v>87</v>
       </c>
       <c r="H70" t="s">
         <v>75</v>
       </c>
       <c r="I70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J70">
         <v>112171841</v>
       </c>
       <c r="K70" t="s">
+        <v>88</v>
+      </c>
+      <c r="L70" t="s">
         <v>89</v>
-      </c>
-      <c r="L70" t="s">
-        <v>90</v>
       </c>
       <c r="M70" t="s">
         <v>64</v>
       </c>
       <c r="O70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P70" t="s">
         <v>65</v>
@@ -11274,10 +11278,10 @@
         <v>325</v>
       </c>
       <c r="Y70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z70" t="s">
         <v>91</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>92</v>
       </c>
       <c r="AA70" t="s">
         <v>71</v>
@@ -11301,13 +11305,13 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ70" t="s">
         <v>93</v>
       </c>
-      <c r="AJ70" t="s">
-        <v>94</v>
-      </c>
       <c r="AK70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM70">
         <v>95432.7</v>
@@ -11319,46 +11323,46 @@
         <v>2</v>
       </c>
       <c r="AQ70" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR70" t="b">
         <v>0</v>
       </c>
       <c r="AS70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU70" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ70" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA70" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC70" t="s">
         <v>82</v>
       </c>
-      <c r="AV70" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW70" t="s">
+      <c r="BD70" t="s">
         <v>82</v>
-      </c>
-      <c r="AX70" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY70" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ70" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA70" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB70" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC70" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD70" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.25">
@@ -11369,7 +11373,7 @@
         <v>43157</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" t="s">
         <v>58</v>
@@ -11378,7 +11382,7 @@
         <v>59</v>
       </c>
       <c r="G71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H71" t="s">
         <v>61</v>
@@ -11423,7 +11427,7 @@
         <v>325</v>
       </c>
       <c r="Y71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z71" t="s">
         <v>70</v>
@@ -11471,49 +11475,49 @@
         <v>1</v>
       </c>
       <c r="AQ71" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR71" t="b">
         <v>1</v>
       </c>
       <c r="AS71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:57" x14ac:dyDescent="0.25">
@@ -11626,49 +11630,49 @@
         <v>1</v>
       </c>
       <c r="AQ72" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR72" t="b">
         <v>1</v>
       </c>
       <c r="AS72" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA72" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC72" t="s">
         <v>82</v>
       </c>
-      <c r="AT72" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU72" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV72" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW72" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX72" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY72" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ72" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA72" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB72" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC72" t="s">
-        <v>83</v>
-      </c>
       <c r="BD72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.25">
@@ -11679,7 +11683,7 @@
         <v>43157</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E73" t="s">
         <v>58</v>
@@ -11688,7 +11692,7 @@
         <v>59</v>
       </c>
       <c r="G73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H73" t="s">
         <v>61</v>
@@ -11733,7 +11737,7 @@
         <v>325</v>
       </c>
       <c r="Y73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z73" t="s">
         <v>70</v>
@@ -11781,49 +11785,49 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR73" t="b">
         <v>1</v>
       </c>
       <c r="AS73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BA73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BC73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.25">
@@ -11834,7 +11838,7 @@
         <v>43158</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
         <v>58</v>
@@ -11843,7 +11847,7 @@
         <v>59</v>
       </c>
       <c r="G74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H74" t="s">
         <v>61</v>
@@ -11888,7 +11892,7 @@
         <v>325</v>
       </c>
       <c r="Y74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z74" t="s">
         <v>70</v>
@@ -11936,43 +11940,43 @@
         <v>1</v>
       </c>
       <c r="AQ74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR74" t="b">
         <v>0</v>
       </c>
       <c r="AS74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.25">
@@ -11983,7 +11987,7 @@
         <v>43155</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E75" t="s">
         <v>58</v>
@@ -11992,7 +11996,7 @@
         <v>59</v>
       </c>
       <c r="G75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H75" t="s">
         <v>61</v>
@@ -12037,13 +12041,13 @@
         <v>325</v>
       </c>
       <c r="Y75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z75" t="s">
         <v>70</v>
       </c>
       <c r="AA75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB75" s="1">
         <v>42647</v>
@@ -12085,49 +12089,49 @@
         <v>1</v>
       </c>
       <c r="AQ75" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR75" t="b">
         <v>1</v>
       </c>
       <c r="AS75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ75" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA75" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB75" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC75" t="s">
         <v>82</v>
       </c>
-      <c r="AT75" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU75" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV75" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW75" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX75" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY75" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ75" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA75" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB75" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC75" t="s">
-        <v>83</v>
-      </c>
       <c r="BD75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.25">
@@ -12138,7 +12142,7 @@
         <v>43159</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E76" t="s">
         <v>58</v>
@@ -12147,7 +12151,7 @@
         <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H76" t="s">
         <v>61</v>
@@ -12192,7 +12196,7 @@
         <v>325</v>
       </c>
       <c r="Y76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z76" t="s">
         <v>70</v>
@@ -12240,49 +12244,49 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR76" t="b">
         <v>1</v>
       </c>
       <c r="AS76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA76" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB76" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC76" t="s">
         <v>82</v>
       </c>
-      <c r="AT76" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU76" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV76" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW76" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX76" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY76" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ76" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA76" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB76" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC76" t="s">
-        <v>83</v>
-      </c>
       <c r="BD76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BE76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:57" x14ac:dyDescent="0.25">
@@ -12293,7 +12297,7 @@
         <v>43154</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E77" t="s">
         <v>58</v>
@@ -12353,7 +12357,7 @@
         <v>70</v>
       </c>
       <c r="AA77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB77" s="1">
         <v>42646</v>
@@ -12395,49 +12399,49 @@
         <v>1</v>
       </c>
       <c r="AQ77" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AR77" t="b">
         <v>1</v>
       </c>
       <c r="AS77" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW77" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY77" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA77" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB77" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC77" t="s">
         <v>82</v>
       </c>
-      <c r="AT77" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU77" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV77" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW77" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX77" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY77" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ77" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA77" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB77" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC77" t="s">
-        <v>83</v>
-      </c>
       <c r="BD77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BE77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.25">
@@ -12448,7 +12452,7 @@
         <v>43157</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E78" t="s">
         <v>58</v>
@@ -12457,7 +12461,7 @@
         <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H78" t="s">
         <v>61</v>
@@ -12502,13 +12506,13 @@
         <v>325</v>
       </c>
       <c r="Y78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z78" t="s">
         <v>70</v>
       </c>
       <c r="AA78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB78" s="1">
         <v>42649</v>
@@ -12550,43 +12554,43 @@
         <v>1</v>
       </c>
       <c r="AQ78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR78" t="b">
         <v>0</v>
       </c>
       <c r="AS78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.25">
@@ -12597,7 +12601,7 @@
         <v>43159</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E79" t="s">
         <v>58</v>
@@ -12606,7 +12610,7 @@
         <v>59</v>
       </c>
       <c r="G79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H79" t="s">
         <v>61</v>
@@ -12651,7 +12655,7 @@
         <v>325</v>
       </c>
       <c r="Y79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z79" t="s">
         <v>70</v>
@@ -12699,51 +12703,47 @@
         <v>1</v>
       </c>
       <c r="AQ79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AR79" t="b">
         <v>0</v>
       </c>
       <c r="AS79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AW79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AZ79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BA79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BD79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BE1">
-    <sortState ref="A2:BE79">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:BE79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
